--- a/CustomerProfile03.xlsx
+++ b/CustomerProfile03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junhuixu/Documents/GitHub/haia-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA869E-2C0A-2141-9679-E0CD67BA1686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8534291-26C4-3B4E-8C2E-A223A4934EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="25600" windowHeight="15440" xr2:uid="{A492B525-3FB3-AC43-8B86-58E3CC00B587}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>Coffee</t>
   </si>
   <si>
-    <t>French</t>
+    <t>France</t>
   </si>
 </sst>
 </file>
